--- a/ky/downloads/data-excel/9.4.1.1.xlsx
+++ b/ky/downloads/data-excel/9.4.1.1.xlsx
@@ -668,19 +668,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="41.140625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="40.42578125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -691,7 +689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>28</v>
       </c>
@@ -707,7 +705,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -720,8 +718,9 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>30</v>
       </c>
@@ -758,8 +757,11 @@
       <c r="L4" s="10">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
@@ -796,8 +798,11 @@
       <c r="L5" s="27">
         <v>292.19961890663211</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="27">
+        <v>311.65582791395695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>12</v>
       </c>
@@ -816,8 +821,9 @@
       <c r="J6" s="17"/>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
@@ -854,8 +860,11 @@
       <c r="L7" s="28">
         <v>99.522498012012946</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="28">
+        <v>119.55977988994496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
@@ -892,8 +901,11 @@
       <c r="L8" s="28">
         <v>192.67712089461918</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="28">
+        <v>192.09604802401199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
@@ -912,8 +924,9 @@
       <c r="J9" s="17"/>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="28"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
@@ -950,8 +963,11 @@
       <c r="L10" s="28">
         <v>88.011952928467494</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="28">
+        <v>78.539269634817401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
@@ -988,8 +1004,11 @@
       <c r="L11" s="28">
         <v>56.919430260413804</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="28">
+        <v>60.030015007503756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -1025,6 +1044,9 @@
       </c>
       <c r="L12" s="29">
         <v>24.176373211436804</v>
+      </c>
+      <c r="M12" s="29">
+        <v>26.013006503251628</v>
       </c>
     </row>
   </sheetData>
